--- a/hugo herman/lista prioridades.xlsx
+++ b/hugo herman/lista prioridades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\copia_seguridad\hugo herman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641AA6E4-07A8-499C-B585-3BD0564D5E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F95890-9591-4DC0-BF47-63F733FF4143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2770F182-A09A-4449-B2DE-C3670B144407}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2770F182-A09A-4449-B2DE-C3670B144407}"/>
   </bookViews>
   <sheets>
     <sheet name="lista" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>requerimiento</t>
   </si>
@@ -57,47 +57,86 @@
     <t>valor de negocio</t>
   </si>
   <si>
-    <t>RF1- Registro de Usuarios</t>
-  </si>
-  <si>
-    <t>RF2 - Registro de parqueaderos</t>
-  </si>
-  <si>
-    <t>RF3 - Reserva de Espacios</t>
-  </si>
-  <si>
-    <t>RF4 - Administración de Espacios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF4.1 -Asignar Espacios a Usuarios: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF5 - Reportes y Estadísticas </t>
-  </si>
-  <si>
-    <t>RF6 - Notificaciones y Alertas</t>
-  </si>
-  <si>
-    <t>RF7 - Registro y Perfil de Administradores.</t>
-  </si>
-  <si>
-    <t>RF08 - Búsqueda avanzada</t>
-  </si>
-  <si>
-    <t>RF09 - Sistema de Reservas</t>
-  </si>
-  <si>
     <t>puntos historicos</t>
   </si>
   <si>
     <t>cociente</t>
+  </si>
+  <si>
+    <t>RF01 -Registro de Usuarios</t>
+  </si>
+  <si>
+    <t>RF02 -Registro de parqueaderos</t>
+  </si>
+  <si>
+    <t>RF03 -Reserva de Espacios</t>
+  </si>
+  <si>
+    <t>RF04 -Administración de Espacios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF05 -Reportes y Estadísticas </t>
+  </si>
+  <si>
+    <t>RF06 -Notificaciones y Alertas</t>
+  </si>
+  <si>
+    <t>RF07 - Registro y Perfil de Administradores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF08 -Búsqueda Avanzada </t>
+  </si>
+  <si>
+    <t>RF9 -Sistema de Reservas</t>
+  </si>
+  <si>
+    <t>RF10 - mapas</t>
+  </si>
+  <si>
+    <t>RF11 -Reseñas y valoraciones</t>
+  </si>
+  <si>
+    <t>RF12 -Notificaciones en tiempo real</t>
+  </si>
+  <si>
+    <t>RF13 -Gestión de perfiles de usuarios</t>
+  </si>
+  <si>
+    <t>RF14 -Herramienta de comparación de precios</t>
+  </si>
+  <si>
+    <t>RF15 -Gestión de disponibilidad en tiempo real</t>
+  </si>
+  <si>
+    <t>RF16-Integración con redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF17 -Soporte multilingüe </t>
+  </si>
+  <si>
+    <t>RF18 -Sistema de seguimiento de vehículos</t>
+  </si>
+  <si>
+    <t>RF19 -Galería de imágenes detallada para cada parqueadero</t>
+  </si>
+  <si>
+    <t>RF20-Inteligencia artificial para recomendaciones personalizadas</t>
+  </si>
+  <si>
+    <t>RF21 administración de cuentas</t>
+  </si>
+  <si>
+    <t>RF4.1 -Asignar Espacios a Usuarios:                                                 RF4.2 -Consultar Disponibilidad de Espacios:</t>
+  </si>
+  <si>
+    <t>RF20-bots para ayudas especializadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,20 +152,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,85 +208,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -564,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D25B617-FC40-4EA0-A733-18012B11D4CF}">
-  <dimension ref="A3:Q20"/>
+  <dimension ref="A3:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,101 +590,176 @@
   <sheetData>
     <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q20" s="16"/>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <conditionalFormatting sqref="B4:B6">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" errorTitle="%$&quot;&quot;$&amp;" error="solo numeros entre 1 y 10" promptTitle="holas" prompt="escribir un numero entre 1 y 10" sqref="D4:D24" xr:uid="{F12895DC-E7F3-47C7-8E1D-302BF0EC67D0}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -681,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613DE6F0-C90E-48CD-9F72-4214F8FF4B7A}">
-  <dimension ref="B3:F12"/>
+  <dimension ref="B3:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,175 +781,368 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <f xml:space="preserve"> D4/E4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F24" si="0" xml:space="preserve"> D5/E5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4">
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f xml:space="preserve"> D4/E4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F12" si="0" xml:space="preserve"> D5/E5</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="%$&quot;&quot;$&amp;" error="solo numeros entre 1 y 10" promptTitle="holas" prompt="escribir un numero entre 1 y 10" sqref="D4:E12" xr:uid="{AC86B2B2-6F21-469C-86DB-CF5BD443954F}">
+  <dataValidations xWindow="688" yWindow="670" count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="%$&quot;&quot;$&amp;" error="solo numeros entre 1 y 10" promptTitle="holas" prompt="escribir un numero entre 1 y 10" sqref="D4:E24" xr:uid="{AC86B2B2-6F21-469C-86DB-CF5BD443954F}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
